--- a/invoice_51109338.xlsx
+++ b/invoice_51109338.xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,168 @@
         <is>
           <t>Gross_Worth</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CLEARANCE! Fast Dell Desktop</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209</v>
+      </c>
+      <c r="E2" t="n">
+        <v>627</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>689.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HP 7520 Thin Client Computer</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>188.75</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>207.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gaming pc desktop computer</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>400</v>
+      </c>
+      <c r="E4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Custom Build Dell Optiplex 9020</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>221.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1109.95</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1220.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dell Optiplex 990 MT Computer</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>269.95</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1079.8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1187.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dell Core 2 Duo Desktop</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>168</v>
+      </c>
+      <c r="E7" t="n">
+        <v>840</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -628,8 +790,10 @@
           <t>Total Net Worth</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>564017</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5,640.17</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -638,8 +802,10 @@
           <t>Total VAT</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>56402</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>564.02</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -648,8 +814,10 @@
           <t>Total Gross Worth</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>620419</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6,204.19</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/invoice_51109338.xlsx
+++ b/invoice_51109338.xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,21 +674,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Custom Build Dell Optiplex 9020</t>
+          <t>12-Core Gaming Computer</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>221.99</v>
+        <v>464.89</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.95</v>
+        <v>1394.67</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -696,26 +696,26 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1220.95</v>
+        <v>1534.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dell Optiplex 990 MT Computer</t>
+          <t>Custom Build Dell Optiplex 9020</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>269.95</v>
+        <v>221.99</v>
       </c>
       <c r="E6" t="n">
-        <v>1079.8</v>
+        <v>1109.95</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -723,33 +723,60 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1187.78</v>
+        <v>1220.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dell Optiplex 990 MT Computer</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>269.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1079.8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1187.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Dell Core 2 Duo Desktop</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>168</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>840</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>924</v>
       </c>
     </row>
